--- a/me/5.Apex-Testing.xlsx
+++ b/me/5.Apex-Testing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2788E6-D954-411D-B70A-21F7A16BBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC415873-0CB9-4B7E-95F0-3E7C4B534A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annotations" sheetId="1" r:id="rId1"/>
     <sheet name="Write First Test Class" sheetId="2" r:id="rId2"/>
+    <sheet name="Challenge - Apex Tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="151">
   <si>
     <t>構成</t>
   </si>
@@ -281,13 +282,233 @@
   </si>
   <si>
     <t>Xem bao nhiêu dòng code trong class Covid19 đã được cover test. Màu xanh có nghĩa là đã được cover</t>
+  </si>
+  <si>
+    <t>3.test-class-challenge-solution</t>
+  </si>
+  <si>
+    <t>Fitness.apxc</t>
+  </si>
+  <si>
+    <t>FitnessTest.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\5.Apex-Testing\3.test-class-challenge-solution\Fitness.apxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Fitness class with helpful methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * to calculate human fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * */</t>
+  </si>
+  <si>
+    <t>public class Fitness {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * calculateBMI method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * accepts body weight (should be in kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * and body height (should be in meter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * returns BMI value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static Decimal calculateBMI(Decimal weight, Decimal height) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(height &lt;= 0 || weight &lt; 0){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return -1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal result  = weight / (height*height);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return result;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * calculatePace method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * accepts distance (in km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * and minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * returns pace in km/hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static Decimal calculatePace(Decimal distance, Decimal minutes) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if(distance &lt; 0 || minutes &lt;= 0){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal hr = minutes/60;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal pace = distance / hr;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return pace;</t>
+  </si>
+  <si>
+    <t>salesforce\5.Apex-Testing\3.test-class-challenge-solution\FitnessTest.apxc</t>
+  </si>
+  <si>
+    <t>public class FitnessTest {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @isTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculateBMITest1(){</t>
+  </si>
+  <si>
+    <t>Decimal weight = 60;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal height = 1.2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal result = Fitness.calculateBMI(weight, height);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        result = result.setScale(2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(41.67, result, 'BMI should be 41.67 for 60kg weight and 1.2 mtr height');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculateBMITest2(){</t>
+  </si>
+  <si>
+    <t>Decimal weight = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(0, result, 'BMI should be 0 for 0kg weight and 1.2 mtr height');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculateBMITest3(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal height = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(-1, result, 'Invalid input');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculateBMITest4(){</t>
+  </si>
+  <si>
+    <t>Decimal weight = -60;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculateBMITest5(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal height = -1.2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculatePaceTest1(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal distance = 10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal minutes = 60;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal result = Fitness.calculatePace(distance, minutes);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(10, result, 'Pace should 10km/hr for 10 km in 60 minutes');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculatePaceTest2(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal minutes = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculatePaceTest3(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal distance = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.assertEquals(0, result, 'Pace should 0km/hr for 0 km in 60 minutes');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculatePaceTest4(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal distance = -10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void calculatePaceTest5(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Decimal minutes = -60;</t>
+  </si>
+  <si>
+    <t>Test for Fitness class</t>
+  </si>
+  <si>
+    <t>-1 cũng có kiểu dữ liệu là Decimal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng annotation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@isTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để khai báo class và method test</t>
+    </r>
+  </si>
+  <si>
+    <t>Lấy 2 số sau dấu phẩy</t>
+  </si>
+  <si>
+    <t>Run test</t>
+  </si>
+  <si>
+    <t>Cover is 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +519,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -423,6 +650,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,14 +1320,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>80620</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>80619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1134,13 +1364,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1187,13 +1417,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>267891</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>116475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1231,13 +1461,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466328</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1284,13 +1514,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228203</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>109141</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>138906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1337,13 +1567,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>307579</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>69454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>496094</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>9921</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1390,13 +1620,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>188515</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>69454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>436563</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>25903</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1434,13 +1664,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>29766</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1487,14 +1717,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>89297</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>99220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>132123</xdr:rowOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>132124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1531,13 +1761,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>128984</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>54987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1575,13 +1805,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>347265</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>218281</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1628,13 +1858,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>297656</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>585390</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1681,13 +1911,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>218281</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>109140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>287735</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>168672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1793,7 +2023,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>39687</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>29766</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1840,13 +2070,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>525859</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>327422</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>69453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1893,13 +2123,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>148828</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>496093</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>69453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1946,13 +2176,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>406797</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>69454</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1999,13 +2229,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>416719</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>99219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2052,13 +2282,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>436563</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>69453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9922</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>148828</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2105,13 +2335,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>89297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>347266</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>9922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2158,13 +2388,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>287734</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>138907</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2182,6 +2412,549 @@
         <a:xfrm>
           <a:off x="1160859" y="37951172"/>
           <a:ext cx="1547813" cy="8751094"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>148829</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545704</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6F9F4B-6F4A-6DCF-E350-1AF8DC5AF9E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="754063" y="9743281"/>
+          <a:ext cx="396875" cy="99219"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>267891</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515938</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FD9F33-0487-3B57-971A-23465464241E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="873125" y="9733359"/>
+          <a:ext cx="248047" cy="674688"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>377032</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DB4606-7720-4A27-4BFA-CC6DA11BBF11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="982266" y="9733359"/>
+          <a:ext cx="158750" cy="5784454"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>513078</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>75390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0ADAC4-5ACB-4EBD-A40A-41A2B5C8A970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="457200"/>
+          <a:ext cx="10171428" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>131777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA7BEF0-2040-4BD2-8201-D0BD26E24E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="7096125"/>
+          <a:ext cx="11258550" cy="6180152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C470E97-A8F8-F356-D478-FCF0E82B4CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1943100" y="19754850"/>
+          <a:ext cx="4171950" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB1E04E-8645-9BCE-B088-B5071743E0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1952625" y="22440900"/>
+          <a:ext cx="4171950" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>95564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4131F0F8-6D37-ED0B-9EB4-77F3D5696EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="43138725"/>
+          <a:ext cx="11325225" cy="5724839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>71054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749194E1-F81F-CBA8-B06E-D2DC545CBA40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="49101376"/>
+          <a:ext cx="11220450" cy="5643178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>78338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05B65AC-E7A0-4B7C-CEEC-D0121893BE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="55340250"/>
+          <a:ext cx="11039475" cy="5507588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174B353C-8FA1-3069-6093-E794C2CAB691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="55216425"/>
+          <a:ext cx="695325" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4094,17 +4867,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900EE316-85BF-4887-94B2-A6A88412689E}">
-  <dimension ref="A2:T254"/>
+  <dimension ref="A2:T255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76"/>
+    <sheetView topLeftCell="A226" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4422,94 +5195,95 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
-      <c r="K52" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+      <c r="K53" t="s">
         <v>9</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="B55" s="5"/>
       <c r="J55" s="6"/>
-      <c r="K55" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" t="s">
         <v>9</v>
       </c>
       <c r="L56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J57" s="6"/>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="B60" s="5"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -4517,157 +5291,157 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="B65" s="5"/>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" t="s">
+      <c r="J67" s="6"/>
+      <c r="K67" t="s">
         <v>9</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L67" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="5"/>
-      <c r="J67" s="6"/>
-    </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="B68" s="5"/>
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="5"/>
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B72" s="5"/>
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B75" s="5"/>
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="5"/>
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="5"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="5"/>
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="B82" s="5"/>
       <c r="J82" s="6"/>
-      <c r="K82" t="s">
-        <v>9</v>
-      </c>
-      <c r="L82" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J83" s="6"/>
+      <c r="K83" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J84" s="6"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="5"/>
       <c r="J86" s="6"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="B87" s="5"/>
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
       <c r="J90" s="6"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -4679,53 +5453,53 @@
       <c r="J92" s="6"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="5"/>
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J93" s="6"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="9"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="9"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B126" s="2"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="3"/>
-      <c r="T126" s="4"/>
-    </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B127" s="5"/>
-      <c r="T127" s="6"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="4"/>
     </row>
     <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
@@ -4844,19 +5618,19 @@
       <c r="T156" s="6"/>
     </row>
     <row r="157" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B157" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B157" s="5"/>
       <c r="T157" s="6"/>
     </row>
     <row r="158" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T158" s="6"/>
-    </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B159" s="5"/>
       <c r="T159" s="6"/>
     </row>
     <row r="160" spans="2:20" x14ac:dyDescent="0.25">
@@ -4976,52 +5750,52 @@
       <c r="T188" s="6"/>
     </row>
     <row r="189" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
-      <c r="N189" s="8"/>
-      <c r="O189" s="8"/>
-      <c r="P189" s="8"/>
-      <c r="Q189" s="8"/>
-      <c r="R189" s="8"/>
-      <c r="S189" s="8"/>
-      <c r="T189" s="9"/>
-    </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B192" s="2" t="s">
+      <c r="B189" s="5"/>
+      <c r="T189" s="6"/>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B190" s="7"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
+      <c r="N190" s="8"/>
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+      <c r="Q190" s="8"/>
+      <c r="R190" s="8"/>
+      <c r="S190" s="8"/>
+      <c r="T190" s="9"/>
+    </row>
+    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
-      <c r="R192" s="3"/>
-      <c r="S192" s="3"/>
-      <c r="T192" s="4"/>
-    </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B193" s="5"/>
-      <c r="T193" s="6"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="4"/>
     </row>
     <row r="194" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
@@ -5264,25 +6038,5439 @@
       <c r="T253" s="6"/>
     </row>
     <row r="254" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B254" s="7"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8"/>
-      <c r="J254" s="8"/>
-      <c r="K254" s="8"/>
-      <c r="L254" s="8"/>
-      <c r="M254" s="8"/>
-      <c r="N254" s="8"/>
-      <c r="O254" s="8"/>
-      <c r="P254" s="8"/>
-      <c r="Q254" s="8"/>
-      <c r="R254" s="8"/>
-      <c r="S254" s="8"/>
-      <c r="T254" s="9"/>
+      <c r="B254" s="5"/>
+      <c r="T254" s="6"/>
+    </row>
+    <row r="255" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B255" s="7"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
+      <c r="J255" s="8"/>
+      <c r="K255" s="8"/>
+      <c r="L255" s="8"/>
+      <c r="M255" s="8"/>
+      <c r="N255" s="8"/>
+      <c r="O255" s="8"/>
+      <c r="P255" s="8"/>
+      <c r="Q255" s="8"/>
+      <c r="R255" s="8"/>
+      <c r="S255" s="8"/>
+      <c r="T255" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B8551-0B6D-4CA5-AB94-B613DB963913}">
+  <dimension ref="A3:T321"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B290" sqref="B290"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="9"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="H85" s="6"/>
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="H86" s="6"/>
+      <c r="I86" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="H87" s="6"/>
+      <c r="I87" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="6"/>
+      <c r="J106" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="6"/>
+      <c r="J120" t="s">
+        <v>9</v>
+      </c>
+      <c r="K120" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="9"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="6"/>
+      <c r="L139" t="s">
+        <v>9</v>
+      </c>
+      <c r="M139" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="6"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="6"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="6"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="6"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="6"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="6"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="6"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+      <c r="K151" s="6"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="6"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
+      <c r="K153" s="6"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
+      <c r="K154" s="6"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
+      <c r="K155" s="6"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="6"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="6"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="6"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="14"/>
+      <c r="K159" s="6"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="6"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="14"/>
+      <c r="K161" s="6"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="14"/>
+      <c r="K162" s="6"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="6"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="6"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="14"/>
+      <c r="K165" s="6"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="6"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="6"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="6"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
+      <c r="K169" s="6"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="14"/>
+      <c r="K170" s="6"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="14"/>
+      <c r="K171" s="6"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="6"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14"/>
+      <c r="K173" s="6"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="14"/>
+      <c r="J174" s="14"/>
+      <c r="K174" s="6"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="14"/>
+      <c r="J175" s="14"/>
+      <c r="K175" s="6"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="6"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="6"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="6"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="6"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="6"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="6"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="6"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="6"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="6"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="6"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="6"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="6"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="14"/>
+      <c r="K188" s="6"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+      <c r="J189" s="14"/>
+      <c r="K189" s="6"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="14"/>
+      <c r="K190" s="6"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="6"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="14"/>
+      <c r="K192" s="6"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="14"/>
+      <c r="K193" s="6"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="14"/>
+      <c r="J194" s="14"/>
+      <c r="K194" s="6"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="14"/>
+      <c r="J195" s="14"/>
+      <c r="K195" s="6"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="5"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="6"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="14"/>
+      <c r="J197" s="14"/>
+      <c r="K197" s="6"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="14"/>
+      <c r="K198" s="6"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="14"/>
+      <c r="J199" s="14"/>
+      <c r="K199" s="6"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="14"/>
+      <c r="J200" s="14"/>
+      <c r="K200" s="6"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14"/>
+      <c r="J201" s="14"/>
+      <c r="K201" s="6"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14"/>
+      <c r="J202" s="14"/>
+      <c r="K202" s="6"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="14"/>
+      <c r="K203" s="6"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="14"/>
+      <c r="J204" s="14"/>
+      <c r="K204" s="6"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="6"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
+      <c r="H206" s="14"/>
+      <c r="I206" s="14"/>
+      <c r="J206" s="14"/>
+      <c r="K206" s="6"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="14"/>
+      <c r="J207" s="14"/>
+      <c r="K207" s="6"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
+      <c r="K208" s="6"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="14"/>
+      <c r="K209" s="6"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="14"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="6"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="14"/>
+      <c r="J211" s="14"/>
+      <c r="K211" s="6"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="14"/>
+      <c r="J212" s="14"/>
+      <c r="K212" s="6"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="14"/>
+      <c r="J213" s="14"/>
+      <c r="K213" s="6"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="14"/>
+      <c r="J214" s="14"/>
+      <c r="K214" s="6"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
+      <c r="H215" s="14"/>
+      <c r="I215" s="14"/>
+      <c r="J215" s="14"/>
+      <c r="K215" s="6"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="14"/>
+      <c r="J216" s="14"/>
+      <c r="K216" s="6"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="14"/>
+      <c r="J217" s="14"/>
+      <c r="K217" s="6"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="14"/>
+      <c r="J218" s="14"/>
+      <c r="K218" s="6"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="14"/>
+      <c r="J219" s="14"/>
+      <c r="K219" s="6"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="14"/>
+      <c r="J220" s="14"/>
+      <c r="K220" s="6"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
+      <c r="K221" s="6"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="14"/>
+      <c r="J222" s="14"/>
+      <c r="K222" s="6"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="8"/>
+      <c r="K223" s="9"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="4"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="5"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="14"/>
+      <c r="J228" s="14"/>
+      <c r="K228" s="14"/>
+      <c r="L228" s="14"/>
+      <c r="M228" s="14"/>
+      <c r="N228" s="14"/>
+      <c r="O228" s="14"/>
+      <c r="P228" s="14"/>
+      <c r="Q228" s="14"/>
+      <c r="R228" s="14"/>
+      <c r="S228" s="14"/>
+      <c r="T228" s="6"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="14"/>
+      <c r="J229" s="14"/>
+      <c r="K229" s="14"/>
+      <c r="L229" s="14"/>
+      <c r="M229" s="14"/>
+      <c r="N229" s="14"/>
+      <c r="O229" s="14"/>
+      <c r="P229" s="14"/>
+      <c r="Q229" s="14"/>
+      <c r="R229" s="14"/>
+      <c r="S229" s="14"/>
+      <c r="T229" s="6"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="14"/>
+      <c r="J230" s="14"/>
+      <c r="K230" s="14"/>
+      <c r="L230" s="14"/>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14"/>
+      <c r="O230" s="14"/>
+      <c r="P230" s="14"/>
+      <c r="Q230" s="14"/>
+      <c r="R230" s="14"/>
+      <c r="S230" s="14"/>
+      <c r="T230" s="6"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="14"/>
+      <c r="J231" s="14"/>
+      <c r="K231" s="14"/>
+      <c r="L231" s="14"/>
+      <c r="M231" s="14"/>
+      <c r="N231" s="14"/>
+      <c r="O231" s="14"/>
+      <c r="P231" s="14"/>
+      <c r="Q231" s="14"/>
+      <c r="R231" s="14"/>
+      <c r="S231" s="14"/>
+      <c r="T231" s="6"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
+      <c r="K232" s="14"/>
+      <c r="L232" s="14"/>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
+      <c r="P232" s="14"/>
+      <c r="Q232" s="14"/>
+      <c r="R232" s="14"/>
+      <c r="S232" s="14"/>
+      <c r="T232" s="6"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="14"/>
+      <c r="L233" s="14"/>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
+      <c r="P233" s="14"/>
+      <c r="Q233" s="14"/>
+      <c r="R233" s="14"/>
+      <c r="S233" s="14"/>
+      <c r="T233" s="6"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="14"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="14"/>
+      <c r="L234" s="14"/>
+      <c r="M234" s="14"/>
+      <c r="N234" s="14"/>
+      <c r="O234" s="14"/>
+      <c r="P234" s="14"/>
+      <c r="Q234" s="14"/>
+      <c r="R234" s="14"/>
+      <c r="S234" s="14"/>
+      <c r="T234" s="6"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="14"/>
+      <c r="J235" s="14"/>
+      <c r="K235" s="14"/>
+      <c r="L235" s="14"/>
+      <c r="M235" s="14"/>
+      <c r="N235" s="14"/>
+      <c r="O235" s="14"/>
+      <c r="P235" s="14"/>
+      <c r="Q235" s="14"/>
+      <c r="R235" s="14"/>
+      <c r="S235" s="14"/>
+      <c r="T235" s="6"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="14"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="14"/>
+      <c r="N236" s="14"/>
+      <c r="O236" s="14"/>
+      <c r="P236" s="14"/>
+      <c r="Q236" s="14"/>
+      <c r="R236" s="14"/>
+      <c r="S236" s="14"/>
+      <c r="T236" s="6"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="14"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="14"/>
+      <c r="L237" s="14"/>
+      <c r="M237" s="14"/>
+      <c r="N237" s="14"/>
+      <c r="O237" s="14"/>
+      <c r="P237" s="14"/>
+      <c r="Q237" s="14"/>
+      <c r="R237" s="14"/>
+      <c r="S237" s="14"/>
+      <c r="T237" s="6"/>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238" s="5"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="14"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+      <c r="L238" s="14"/>
+      <c r="M238" s="14"/>
+      <c r="N238" s="14"/>
+      <c r="O238" s="14"/>
+      <c r="P238" s="14"/>
+      <c r="Q238" s="14"/>
+      <c r="R238" s="14"/>
+      <c r="S238" s="14"/>
+      <c r="T238" s="6"/>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="14"/>
+      <c r="M239" s="14"/>
+      <c r="N239" s="14"/>
+      <c r="O239" s="14"/>
+      <c r="P239" s="14"/>
+      <c r="Q239" s="14"/>
+      <c r="R239" s="14"/>
+      <c r="S239" s="14"/>
+      <c r="T239" s="6"/>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="14"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="14"/>
+      <c r="L240" s="14"/>
+      <c r="M240" s="14"/>
+      <c r="N240" s="14"/>
+      <c r="O240" s="14"/>
+      <c r="P240" s="14"/>
+      <c r="Q240" s="14"/>
+      <c r="R240" s="14"/>
+      <c r="S240" s="14"/>
+      <c r="T240" s="6"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="14"/>
+      <c r="J241" s="14"/>
+      <c r="K241" s="14"/>
+      <c r="L241" s="14"/>
+      <c r="M241" s="14"/>
+      <c r="N241" s="14"/>
+      <c r="O241" s="14"/>
+      <c r="P241" s="14"/>
+      <c r="Q241" s="14"/>
+      <c r="R241" s="14"/>
+      <c r="S241" s="14"/>
+      <c r="T241" s="6"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
+      <c r="M242" s="14"/>
+      <c r="N242" s="14"/>
+      <c r="O242" s="14"/>
+      <c r="P242" s="14"/>
+      <c r="Q242" s="14"/>
+      <c r="R242" s="14"/>
+      <c r="S242" s="14"/>
+      <c r="T242" s="6"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="14"/>
+      <c r="L243" s="14"/>
+      <c r="M243" s="14"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
+      <c r="P243" s="14"/>
+      <c r="Q243" s="14"/>
+      <c r="R243" s="14"/>
+      <c r="S243" s="14"/>
+      <c r="T243" s="6"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="14"/>
+      <c r="L244" s="14"/>
+      <c r="M244" s="14"/>
+      <c r="N244" s="14"/>
+      <c r="O244" s="14"/>
+      <c r="P244" s="14"/>
+      <c r="Q244" s="14"/>
+      <c r="R244" s="14"/>
+      <c r="S244" s="14"/>
+      <c r="T244" s="6"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="14"/>
+      <c r="M245" s="14"/>
+      <c r="N245" s="14"/>
+      <c r="O245" s="14"/>
+      <c r="P245" s="14"/>
+      <c r="Q245" s="14"/>
+      <c r="R245" s="14"/>
+      <c r="S245" s="14"/>
+      <c r="T245" s="6"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246" s="5"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="14"/>
+      <c r="L246" s="14"/>
+      <c r="M246" s="14"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="14"/>
+      <c r="P246" s="14"/>
+      <c r="Q246" s="14"/>
+      <c r="R246" s="14"/>
+      <c r="S246" s="14"/>
+      <c r="T246" s="6"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247" s="5"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="14"/>
+      <c r="L247" s="14"/>
+      <c r="M247" s="14"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="14"/>
+      <c r="P247" s="14"/>
+      <c r="Q247" s="14"/>
+      <c r="R247" s="14"/>
+      <c r="S247" s="14"/>
+      <c r="T247" s="6"/>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248" s="5"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="14"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="14"/>
+      <c r="P248" s="14"/>
+      <c r="Q248" s="14"/>
+      <c r="R248" s="14"/>
+      <c r="S248" s="14"/>
+      <c r="T248" s="6"/>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249" s="5"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="14"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="14"/>
+      <c r="P249" s="14"/>
+      <c r="Q249" s="14"/>
+      <c r="R249" s="14"/>
+      <c r="S249" s="14"/>
+      <c r="T249" s="6"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" s="5"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="14"/>
+      <c r="N250" s="14"/>
+      <c r="O250" s="14"/>
+      <c r="P250" s="14"/>
+      <c r="Q250" s="14"/>
+      <c r="R250" s="14"/>
+      <c r="S250" s="14"/>
+      <c r="T250" s="6"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="14"/>
+      <c r="M251" s="14"/>
+      <c r="N251" s="14"/>
+      <c r="O251" s="14"/>
+      <c r="P251" s="14"/>
+      <c r="Q251" s="14"/>
+      <c r="R251" s="14"/>
+      <c r="S251" s="14"/>
+      <c r="T251" s="6"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
+      <c r="L252" s="14"/>
+      <c r="M252" s="14"/>
+      <c r="N252" s="14"/>
+      <c r="O252" s="14"/>
+      <c r="P252" s="14"/>
+      <c r="Q252" s="14"/>
+      <c r="R252" s="14"/>
+      <c r="S252" s="14"/>
+      <c r="T252" s="6"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" s="5"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
+      <c r="K253" s="14"/>
+      <c r="L253" s="14"/>
+      <c r="M253" s="14"/>
+      <c r="N253" s="14"/>
+      <c r="O253" s="14"/>
+      <c r="P253" s="14"/>
+      <c r="Q253" s="14"/>
+      <c r="R253" s="14"/>
+      <c r="S253" s="14"/>
+      <c r="T253" s="6"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" s="5"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
+      <c r="K254" s="14"/>
+      <c r="L254" s="14"/>
+      <c r="M254" s="14"/>
+      <c r="N254" s="14"/>
+      <c r="O254" s="14"/>
+      <c r="P254" s="14"/>
+      <c r="Q254" s="14"/>
+      <c r="R254" s="14"/>
+      <c r="S254" s="14"/>
+      <c r="T254" s="6"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" s="5"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="14"/>
+      <c r="J255" s="14"/>
+      <c r="K255" s="14"/>
+      <c r="L255" s="14"/>
+      <c r="M255" s="14"/>
+      <c r="N255" s="14"/>
+      <c r="O255" s="14"/>
+      <c r="P255" s="14"/>
+      <c r="Q255" s="14"/>
+      <c r="R255" s="14"/>
+      <c r="S255" s="14"/>
+      <c r="T255" s="6"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256" s="5"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="14"/>
+      <c r="L256" s="14"/>
+      <c r="M256" s="14"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="14"/>
+      <c r="P256" s="14"/>
+      <c r="Q256" s="14"/>
+      <c r="R256" s="14"/>
+      <c r="S256" s="14"/>
+      <c r="T256" s="6"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="14"/>
+      <c r="F257" s="14"/>
+      <c r="G257" s="14"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
+      <c r="K257" s="14"/>
+      <c r="L257" s="14"/>
+      <c r="M257" s="14"/>
+      <c r="N257" s="14"/>
+      <c r="O257" s="14"/>
+      <c r="P257" s="14"/>
+      <c r="Q257" s="14"/>
+      <c r="R257" s="14"/>
+      <c r="S257" s="14"/>
+      <c r="T257" s="6"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
+      <c r="H258" s="14"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
+      <c r="K258" s="14"/>
+      <c r="L258" s="14"/>
+      <c r="M258" s="14"/>
+      <c r="N258" s="14"/>
+      <c r="O258" s="14"/>
+      <c r="P258" s="14"/>
+      <c r="Q258" s="14"/>
+      <c r="R258" s="14"/>
+      <c r="S258" s="14"/>
+      <c r="T258" s="6"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14"/>
+      <c r="H259" s="14"/>
+      <c r="I259" s="14"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="14"/>
+      <c r="L259" s="14"/>
+      <c r="M259" s="14"/>
+      <c r="N259" s="14"/>
+      <c r="O259" s="14"/>
+      <c r="P259" s="14"/>
+      <c r="Q259" s="14"/>
+      <c r="R259" s="14"/>
+      <c r="S259" s="14"/>
+      <c r="T259" s="6"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="14"/>
+      <c r="L260" s="14"/>
+      <c r="M260" s="14"/>
+      <c r="N260" s="14"/>
+      <c r="O260" s="14"/>
+      <c r="P260" s="14"/>
+      <c r="Q260" s="14"/>
+      <c r="R260" s="14"/>
+      <c r="S260" s="14"/>
+      <c r="T260" s="6"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
+      <c r="K261" s="14"/>
+      <c r="L261" s="14"/>
+      <c r="M261" s="14"/>
+      <c r="N261" s="14"/>
+      <c r="O261" s="14"/>
+      <c r="P261" s="14"/>
+      <c r="Q261" s="14"/>
+      <c r="R261" s="14"/>
+      <c r="S261" s="14"/>
+      <c r="T261" s="6"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="14"/>
+      <c r="J262" s="14"/>
+      <c r="K262" s="14"/>
+      <c r="L262" s="14"/>
+      <c r="M262" s="14"/>
+      <c r="N262" s="14"/>
+      <c r="O262" s="14"/>
+      <c r="P262" s="14"/>
+      <c r="Q262" s="14"/>
+      <c r="R262" s="14"/>
+      <c r="S262" s="14"/>
+      <c r="T262" s="6"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263" s="5"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="14"/>
+      <c r="J263" s="14"/>
+      <c r="K263" s="14"/>
+      <c r="L263" s="14"/>
+      <c r="M263" s="14"/>
+      <c r="N263" s="14"/>
+      <c r="O263" s="14"/>
+      <c r="P263" s="14"/>
+      <c r="Q263" s="14"/>
+      <c r="R263" s="14"/>
+      <c r="S263" s="14"/>
+      <c r="T263" s="6"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="14"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="14"/>
+      <c r="L264" s="14"/>
+      <c r="M264" s="14"/>
+      <c r="N264" s="14"/>
+      <c r="O264" s="14"/>
+      <c r="P264" s="14"/>
+      <c r="Q264" s="14"/>
+      <c r="R264" s="14"/>
+      <c r="S264" s="14"/>
+      <c r="T264" s="6"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A265" s="5"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
+      <c r="K265" s="14"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="14"/>
+      <c r="N265" s="14"/>
+      <c r="O265" s="14"/>
+      <c r="P265" s="14"/>
+      <c r="Q265" s="14"/>
+      <c r="R265" s="14"/>
+      <c r="S265" s="14"/>
+      <c r="T265" s="6"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A266" s="5"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="14"/>
+      <c r="J266" s="14"/>
+      <c r="K266" s="14"/>
+      <c r="L266" s="14"/>
+      <c r="M266" s="14"/>
+      <c r="N266" s="14"/>
+      <c r="O266" s="14"/>
+      <c r="P266" s="14"/>
+      <c r="Q266" s="14"/>
+      <c r="R266" s="14"/>
+      <c r="S266" s="14"/>
+      <c r="T266" s="6"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A267" s="5"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="14"/>
+      <c r="J267" s="14"/>
+      <c r="K267" s="14"/>
+      <c r="L267" s="14"/>
+      <c r="M267" s="14"/>
+      <c r="N267" s="14"/>
+      <c r="O267" s="14"/>
+      <c r="P267" s="14"/>
+      <c r="Q267" s="14"/>
+      <c r="R267" s="14"/>
+      <c r="S267" s="14"/>
+      <c r="T267" s="6"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A268" s="5"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="14"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="14"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="14"/>
+      <c r="L268" s="14"/>
+      <c r="M268" s="14"/>
+      <c r="N268" s="14"/>
+      <c r="O268" s="14"/>
+      <c r="P268" s="14"/>
+      <c r="Q268" s="14"/>
+      <c r="R268" s="14"/>
+      <c r="S268" s="14"/>
+      <c r="T268" s="6"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269" s="5"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="14"/>
+      <c r="J269" s="14"/>
+      <c r="K269" s="14"/>
+      <c r="L269" s="14"/>
+      <c r="M269" s="14"/>
+      <c r="N269" s="14"/>
+      <c r="O269" s="14"/>
+      <c r="P269" s="14"/>
+      <c r="Q269" s="14"/>
+      <c r="R269" s="14"/>
+      <c r="S269" s="14"/>
+      <c r="T269" s="6"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A270" s="5"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="14"/>
+      <c r="J270" s="14"/>
+      <c r="K270" s="14"/>
+      <c r="L270" s="14"/>
+      <c r="M270" s="14"/>
+      <c r="N270" s="14"/>
+      <c r="O270" s="14"/>
+      <c r="P270" s="14"/>
+      <c r="Q270" s="14"/>
+      <c r="R270" s="14"/>
+      <c r="S270" s="14"/>
+      <c r="T270" s="6"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="F271" s="14"/>
+      <c r="G271" s="14"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="14"/>
+      <c r="J271" s="14"/>
+      <c r="K271" s="14"/>
+      <c r="L271" s="14"/>
+      <c r="M271" s="14"/>
+      <c r="N271" s="14"/>
+      <c r="O271" s="14"/>
+      <c r="P271" s="14"/>
+      <c r="Q271" s="14"/>
+      <c r="R271" s="14"/>
+      <c r="S271" s="14"/>
+      <c r="T271" s="6"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A272" s="5"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="14"/>
+      <c r="J272" s="14"/>
+      <c r="K272" s="14"/>
+      <c r="L272" s="14"/>
+      <c r="M272" s="14"/>
+      <c r="N272" s="14"/>
+      <c r="O272" s="14"/>
+      <c r="P272" s="14"/>
+      <c r="Q272" s="14"/>
+      <c r="R272" s="14"/>
+      <c r="S272" s="14"/>
+      <c r="T272" s="6"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
+      <c r="J273" s="14"/>
+      <c r="K273" s="14"/>
+      <c r="L273" s="14"/>
+      <c r="M273" s="14"/>
+      <c r="N273" s="14"/>
+      <c r="O273" s="14"/>
+      <c r="P273" s="14"/>
+      <c r="Q273" s="14"/>
+      <c r="R273" s="14"/>
+      <c r="S273" s="14"/>
+      <c r="T273" s="6"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274" s="5"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
+      <c r="H274" s="14"/>
+      <c r="I274" s="14"/>
+      <c r="J274" s="14"/>
+      <c r="K274" s="14"/>
+      <c r="L274" s="14"/>
+      <c r="M274" s="14"/>
+      <c r="N274" s="14"/>
+      <c r="O274" s="14"/>
+      <c r="P274" s="14"/>
+      <c r="Q274" s="14"/>
+      <c r="R274" s="14"/>
+      <c r="S274" s="14"/>
+      <c r="T274" s="6"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A275" s="5"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="14"/>
+      <c r="J275" s="14"/>
+      <c r="K275" s="14"/>
+      <c r="L275" s="14"/>
+      <c r="M275" s="14"/>
+      <c r="N275" s="14"/>
+      <c r="O275" s="14"/>
+      <c r="P275" s="14"/>
+      <c r="Q275" s="14"/>
+      <c r="R275" s="14"/>
+      <c r="S275" s="14"/>
+      <c r="T275" s="6"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
+      <c r="J276" s="14"/>
+      <c r="K276" s="14"/>
+      <c r="L276" s="14"/>
+      <c r="M276" s="14"/>
+      <c r="N276" s="14"/>
+      <c r="O276" s="14"/>
+      <c r="P276" s="14"/>
+      <c r="Q276" s="14"/>
+      <c r="R276" s="14"/>
+      <c r="S276" s="14"/>
+      <c r="T276" s="6"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A277" s="5"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
+      <c r="J277" s="14"/>
+      <c r="K277" s="14"/>
+      <c r="L277" s="14"/>
+      <c r="M277" s="14"/>
+      <c r="N277" s="14"/>
+      <c r="O277" s="14"/>
+      <c r="P277" s="14"/>
+      <c r="Q277" s="14"/>
+      <c r="R277" s="14"/>
+      <c r="S277" s="14"/>
+      <c r="T277" s="6"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A278" s="5"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="14"/>
+      <c r="J278" s="14"/>
+      <c r="K278" s="14"/>
+      <c r="L278" s="14"/>
+      <c r="M278" s="14"/>
+      <c r="N278" s="14"/>
+      <c r="O278" s="14"/>
+      <c r="P278" s="14"/>
+      <c r="Q278" s="14"/>
+      <c r="R278" s="14"/>
+      <c r="S278" s="14"/>
+      <c r="T278" s="6"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A279" s="5"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="14"/>
+      <c r="J279" s="14"/>
+      <c r="K279" s="14"/>
+      <c r="L279" s="14"/>
+      <c r="M279" s="14"/>
+      <c r="N279" s="14"/>
+      <c r="O279" s="14"/>
+      <c r="P279" s="14"/>
+      <c r="Q279" s="14"/>
+      <c r="R279" s="14"/>
+      <c r="S279" s="14"/>
+      <c r="T279" s="6"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A280" s="5"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="14"/>
+      <c r="J280" s="14"/>
+      <c r="K280" s="14"/>
+      <c r="L280" s="14"/>
+      <c r="M280" s="14"/>
+      <c r="N280" s="14"/>
+      <c r="O280" s="14"/>
+      <c r="P280" s="14"/>
+      <c r="Q280" s="14"/>
+      <c r="R280" s="14"/>
+      <c r="S280" s="14"/>
+      <c r="T280" s="6"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281" s="5"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="14"/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="14"/>
+      <c r="J281" s="14"/>
+      <c r="K281" s="14"/>
+      <c r="L281" s="14"/>
+      <c r="M281" s="14"/>
+      <c r="N281" s="14"/>
+      <c r="O281" s="14"/>
+      <c r="P281" s="14"/>
+      <c r="Q281" s="14"/>
+      <c r="R281" s="14"/>
+      <c r="S281" s="14"/>
+      <c r="T281" s="6"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A282" s="5"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="14"/>
+      <c r="J282" s="14"/>
+      <c r="K282" s="14"/>
+      <c r="L282" s="14"/>
+      <c r="M282" s="14"/>
+      <c r="N282" s="14"/>
+      <c r="O282" s="14"/>
+      <c r="P282" s="14"/>
+      <c r="Q282" s="14"/>
+      <c r="R282" s="14"/>
+      <c r="S282" s="14"/>
+      <c r="T282" s="6"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A283" s="5"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
+      <c r="F283" s="14"/>
+      <c r="G283" s="14"/>
+      <c r="H283" s="14"/>
+      <c r="I283" s="14"/>
+      <c r="J283" s="14"/>
+      <c r="K283" s="14"/>
+      <c r="L283" s="14"/>
+      <c r="M283" s="14"/>
+      <c r="N283" s="14"/>
+      <c r="O283" s="14"/>
+      <c r="P283" s="14"/>
+      <c r="Q283" s="14"/>
+      <c r="R283" s="14"/>
+      <c r="S283" s="14"/>
+      <c r="T283" s="6"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A284" s="5"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="14"/>
+      <c r="F284" s="14"/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="14"/>
+      <c r="J284" s="14"/>
+      <c r="K284" s="14"/>
+      <c r="L284" s="14"/>
+      <c r="M284" s="14"/>
+      <c r="N284" s="14"/>
+      <c r="O284" s="14"/>
+      <c r="P284" s="14"/>
+      <c r="Q284" s="14"/>
+      <c r="R284" s="14"/>
+      <c r="S284" s="14"/>
+      <c r="T284" s="6"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A285" s="5"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14"/>
+      <c r="F285" s="14"/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="14"/>
+      <c r="J285" s="14"/>
+      <c r="K285" s="14"/>
+      <c r="L285" s="14"/>
+      <c r="M285" s="14"/>
+      <c r="N285" s="14"/>
+      <c r="O285" s="14"/>
+      <c r="P285" s="14"/>
+      <c r="Q285" s="14"/>
+      <c r="R285" s="14"/>
+      <c r="S285" s="14"/>
+      <c r="T285" s="6"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A286" s="5"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="14"/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="14"/>
+      <c r="I286" s="14"/>
+      <c r="J286" s="14"/>
+      <c r="K286" s="14"/>
+      <c r="L286" s="14"/>
+      <c r="M286" s="14"/>
+      <c r="N286" s="14"/>
+      <c r="O286" s="14"/>
+      <c r="P286" s="14"/>
+      <c r="Q286" s="14"/>
+      <c r="R286" s="14"/>
+      <c r="S286" s="14"/>
+      <c r="T286" s="6"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A287" s="5"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="14"/>
+      <c r="F287" s="14"/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="14"/>
+      <c r="I287" s="14"/>
+      <c r="J287" s="14"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
+      <c r="M287" s="14"/>
+      <c r="N287" s="14"/>
+      <c r="O287" s="14"/>
+      <c r="P287" s="14"/>
+      <c r="Q287" s="14"/>
+      <c r="R287" s="14"/>
+      <c r="S287" s="14"/>
+      <c r="T287" s="6"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+      <c r="G288" s="8"/>
+      <c r="H288" s="8"/>
+      <c r="I288" s="8"/>
+      <c r="J288" s="8"/>
+      <c r="K288" s="8"/>
+      <c r="L288" s="8"/>
+      <c r="M288" s="8"/>
+      <c r="N288" s="8"/>
+      <c r="O288" s="8"/>
+      <c r="P288" s="8"/>
+      <c r="Q288" s="8"/>
+      <c r="R288" s="8"/>
+      <c r="S288" s="8"/>
+      <c r="T288" s="9"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+      <c r="F289" s="14"/>
+      <c r="G289" s="14"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="14"/>
+      <c r="L289" s="14"/>
+      <c r="M289" s="14"/>
+      <c r="N289" s="14"/>
+      <c r="O289" s="14"/>
+      <c r="P289" s="14"/>
+      <c r="Q289" s="14"/>
+      <c r="R289" s="14"/>
+      <c r="S289" s="14"/>
+      <c r="T289" s="14"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+      <c r="T291" s="4"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A292" s="5"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="14"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="14"/>
+      <c r="J292" s="14"/>
+      <c r="K292" s="14"/>
+      <c r="L292" s="14"/>
+      <c r="M292" s="14"/>
+      <c r="N292" s="14"/>
+      <c r="O292" s="14"/>
+      <c r="P292" s="14"/>
+      <c r="Q292" s="14"/>
+      <c r="R292" s="14"/>
+      <c r="S292" s="14"/>
+      <c r="T292" s="6"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A293" s="5"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+      <c r="F293" s="14"/>
+      <c r="G293" s="14"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="14"/>
+      <c r="L293" s="14"/>
+      <c r="M293" s="14"/>
+      <c r="N293" s="14"/>
+      <c r="O293" s="14"/>
+      <c r="P293" s="14"/>
+      <c r="Q293" s="14"/>
+      <c r="R293" s="14"/>
+      <c r="S293" s="14"/>
+      <c r="T293" s="6"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A294" s="5"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="14"/>
+      <c r="H294" s="14"/>
+      <c r="I294" s="14"/>
+      <c r="J294" s="14"/>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
+      <c r="M294" s="14"/>
+      <c r="N294" s="14"/>
+      <c r="O294" s="14"/>
+      <c r="P294" s="14"/>
+      <c r="Q294" s="14"/>
+      <c r="R294" s="14"/>
+      <c r="S294" s="14"/>
+      <c r="T294" s="6"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A295" s="5"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
+      <c r="F295" s="14"/>
+      <c r="G295" s="14"/>
+      <c r="H295" s="14"/>
+      <c r="I295" s="14"/>
+      <c r="J295" s="14"/>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
+      <c r="M295" s="14"/>
+      <c r="N295" s="14"/>
+      <c r="O295" s="14"/>
+      <c r="P295" s="14"/>
+      <c r="Q295" s="14"/>
+      <c r="R295" s="14"/>
+      <c r="S295" s="14"/>
+      <c r="T295" s="6"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A296" s="5"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+      <c r="F296" s="14"/>
+      <c r="G296" s="14"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="14"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="14"/>
+      <c r="L296" s="14"/>
+      <c r="M296" s="14"/>
+      <c r="N296" s="14"/>
+      <c r="O296" s="14"/>
+      <c r="P296" s="14"/>
+      <c r="Q296" s="14"/>
+      <c r="R296" s="14"/>
+      <c r="S296" s="14"/>
+      <c r="T296" s="6"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A297" s="5"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+      <c r="F297" s="14"/>
+      <c r="G297" s="14"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="14"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="14"/>
+      <c r="L297" s="14"/>
+      <c r="M297" s="14"/>
+      <c r="N297" s="14"/>
+      <c r="O297" s="14"/>
+      <c r="P297" s="14"/>
+      <c r="Q297" s="14"/>
+      <c r="R297" s="14"/>
+      <c r="S297" s="14"/>
+      <c r="T297" s="6"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A298" s="5"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="14"/>
+      <c r="G298" s="14"/>
+      <c r="H298" s="14"/>
+      <c r="I298" s="14"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="14"/>
+      <c r="L298" s="14"/>
+      <c r="M298" s="14"/>
+      <c r="N298" s="14"/>
+      <c r="O298" s="14"/>
+      <c r="P298" s="14"/>
+      <c r="Q298" s="14"/>
+      <c r="R298" s="14"/>
+      <c r="S298" s="14"/>
+      <c r="T298" s="6"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A299" s="5"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14"/>
+      <c r="F299" s="14"/>
+      <c r="G299" s="14"/>
+      <c r="H299" s="14"/>
+      <c r="I299" s="14"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="14"/>
+      <c r="L299" s="14"/>
+      <c r="M299" s="14"/>
+      <c r="N299" s="14"/>
+      <c r="O299" s="14"/>
+      <c r="P299" s="14"/>
+      <c r="Q299" s="14"/>
+      <c r="R299" s="14"/>
+      <c r="S299" s="14"/>
+      <c r="T299" s="6"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A300" s="5"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="14"/>
+      <c r="L300" s="14"/>
+      <c r="M300" s="14"/>
+      <c r="N300" s="14"/>
+      <c r="O300" s="14"/>
+      <c r="P300" s="14"/>
+      <c r="Q300" s="14"/>
+      <c r="R300" s="14"/>
+      <c r="S300" s="14"/>
+      <c r="T300" s="6"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A301" s="5"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="14"/>
+      <c r="F301" s="14"/>
+      <c r="G301" s="14"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="14"/>
+      <c r="L301" s="14"/>
+      <c r="M301" s="14"/>
+      <c r="N301" s="14"/>
+      <c r="O301" s="14"/>
+      <c r="P301" s="14"/>
+      <c r="Q301" s="14"/>
+      <c r="R301" s="14"/>
+      <c r="S301" s="14"/>
+      <c r="T301" s="6"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14"/>
+      <c r="F302" s="14"/>
+      <c r="G302" s="14"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="14"/>
+      <c r="J302" s="14"/>
+      <c r="K302" s="14"/>
+      <c r="L302" s="14"/>
+      <c r="M302" s="14"/>
+      <c r="N302" s="14"/>
+      <c r="O302" s="14"/>
+      <c r="P302" s="14"/>
+      <c r="Q302" s="14"/>
+      <c r="R302" s="14"/>
+      <c r="S302" s="14"/>
+      <c r="T302" s="6"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="14"/>
+      <c r="J303" s="14"/>
+      <c r="K303" s="14"/>
+      <c r="L303" s="14"/>
+      <c r="M303" s="14"/>
+      <c r="N303" s="14"/>
+      <c r="O303" s="14"/>
+      <c r="P303" s="14"/>
+      <c r="Q303" s="14"/>
+      <c r="R303" s="14"/>
+      <c r="S303" s="14"/>
+      <c r="T303" s="6"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14"/>
+      <c r="J304" s="14"/>
+      <c r="K304" s="14"/>
+      <c r="L304" s="14"/>
+      <c r="M304" s="14"/>
+      <c r="N304" s="14"/>
+      <c r="O304" s="14"/>
+      <c r="P304" s="14"/>
+      <c r="Q304" s="14"/>
+      <c r="R304" s="14"/>
+      <c r="S304" s="14"/>
+      <c r="T304" s="6"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A305" s="5"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="14"/>
+      <c r="G305" s="14"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14"/>
+      <c r="J305" s="14"/>
+      <c r="K305" s="14"/>
+      <c r="L305" s="14"/>
+      <c r="M305" s="14"/>
+      <c r="N305" s="14"/>
+      <c r="O305" s="14"/>
+      <c r="P305" s="14"/>
+      <c r="Q305" s="14"/>
+      <c r="R305" s="14"/>
+      <c r="S305" s="14"/>
+      <c r="T305" s="6"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A306" s="5"/>
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="14"/>
+      <c r="J306" s="14"/>
+      <c r="K306" s="14"/>
+      <c r="L306" s="14"/>
+      <c r="M306" s="14"/>
+      <c r="N306" s="14"/>
+      <c r="O306" s="14"/>
+      <c r="P306" s="14"/>
+      <c r="Q306" s="14"/>
+      <c r="R306" s="14"/>
+      <c r="S306" s="14"/>
+      <c r="T306" s="6"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A307" s="5"/>
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14"/>
+      <c r="F307" s="14"/>
+      <c r="G307" s="14"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="14"/>
+      <c r="J307" s="14"/>
+      <c r="K307" s="14"/>
+      <c r="L307" s="14"/>
+      <c r="M307" s="14"/>
+      <c r="N307" s="14"/>
+      <c r="O307" s="14"/>
+      <c r="P307" s="14"/>
+      <c r="Q307" s="14"/>
+      <c r="R307" s="14"/>
+      <c r="S307" s="14"/>
+      <c r="T307" s="6"/>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A308" s="5"/>
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="14"/>
+      <c r="F308" s="14"/>
+      <c r="G308" s="14"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14"/>
+      <c r="J308" s="14"/>
+      <c r="K308" s="14"/>
+      <c r="L308" s="14"/>
+      <c r="M308" s="14"/>
+      <c r="N308" s="14"/>
+      <c r="O308" s="14"/>
+      <c r="P308" s="14"/>
+      <c r="Q308" s="14"/>
+      <c r="R308" s="14"/>
+      <c r="S308" s="14"/>
+      <c r="T308" s="6"/>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A309" s="5"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14"/>
+      <c r="F309" s="14"/>
+      <c r="G309" s="14"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="14"/>
+      <c r="J309" s="14"/>
+      <c r="K309" s="14"/>
+      <c r="L309" s="14"/>
+      <c r="M309" s="14"/>
+      <c r="N309" s="14"/>
+      <c r="O309" s="14"/>
+      <c r="P309" s="14"/>
+      <c r="Q309" s="14"/>
+      <c r="R309" s="14"/>
+      <c r="S309" s="14"/>
+      <c r="T309" s="6"/>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A310" s="5"/>
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="14"/>
+      <c r="G310" s="14"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="14"/>
+      <c r="J310" s="14"/>
+      <c r="K310" s="14"/>
+      <c r="L310" s="14"/>
+      <c r="M310" s="14"/>
+      <c r="N310" s="14"/>
+      <c r="O310" s="14"/>
+      <c r="P310" s="14"/>
+      <c r="Q310" s="14"/>
+      <c r="R310" s="14"/>
+      <c r="S310" s="14"/>
+      <c r="T310" s="6"/>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A311" s="5"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14"/>
+      <c r="F311" s="14"/>
+      <c r="G311" s="14"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="14"/>
+      <c r="J311" s="14"/>
+      <c r="K311" s="14"/>
+      <c r="L311" s="14"/>
+      <c r="M311" s="14"/>
+      <c r="N311" s="14"/>
+      <c r="O311" s="14"/>
+      <c r="P311" s="14"/>
+      <c r="Q311" s="14"/>
+      <c r="R311" s="14"/>
+      <c r="S311" s="14"/>
+      <c r="T311" s="6"/>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A312" s="5"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+      <c r="F312" s="14"/>
+      <c r="G312" s="14"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14"/>
+      <c r="J312" s="14"/>
+      <c r="K312" s="14"/>
+      <c r="L312" s="14"/>
+      <c r="M312" s="14"/>
+      <c r="N312" s="14"/>
+      <c r="O312" s="14"/>
+      <c r="P312" s="14"/>
+      <c r="Q312" s="14"/>
+      <c r="R312" s="14"/>
+      <c r="S312" s="14"/>
+      <c r="T312" s="6"/>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A313" s="5"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14"/>
+      <c r="J313" s="14"/>
+      <c r="K313" s="14"/>
+      <c r="L313" s="14"/>
+      <c r="M313" s="14"/>
+      <c r="N313" s="14"/>
+      <c r="O313" s="14"/>
+      <c r="P313" s="14"/>
+      <c r="Q313" s="14"/>
+      <c r="R313" s="14"/>
+      <c r="S313" s="14"/>
+      <c r="T313" s="6"/>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A314" s="5"/>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="14"/>
+      <c r="J314" s="14"/>
+      <c r="K314" s="14"/>
+      <c r="L314" s="14"/>
+      <c r="M314" s="14"/>
+      <c r="N314" s="14"/>
+      <c r="O314" s="14"/>
+      <c r="P314" s="14"/>
+      <c r="Q314" s="14"/>
+      <c r="R314" s="14"/>
+      <c r="S314" s="14"/>
+      <c r="T314" s="6"/>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A315" s="5"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14"/>
+      <c r="J315" s="14"/>
+      <c r="K315" s="14"/>
+      <c r="L315" s="14"/>
+      <c r="M315" s="14"/>
+      <c r="N315" s="14"/>
+      <c r="O315" s="14"/>
+      <c r="P315" s="14"/>
+      <c r="Q315" s="14"/>
+      <c r="R315" s="14"/>
+      <c r="S315" s="14"/>
+      <c r="T315" s="6"/>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A316" s="5"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="14"/>
+      <c r="L316" s="14"/>
+      <c r="M316" s="14"/>
+      <c r="N316" s="14"/>
+      <c r="O316" s="14"/>
+      <c r="P316" s="14"/>
+      <c r="Q316" s="14"/>
+      <c r="R316" s="14"/>
+      <c r="S316" s="14"/>
+      <c r="T316" s="6"/>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A317" s="5"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="14"/>
+      <c r="J317" s="14"/>
+      <c r="K317" s="14"/>
+      <c r="L317" s="14"/>
+      <c r="M317" s="14"/>
+      <c r="N317" s="14"/>
+      <c r="O317" s="14"/>
+      <c r="P317" s="14"/>
+      <c r="Q317" s="14"/>
+      <c r="R317" s="14"/>
+      <c r="S317" s="14"/>
+      <c r="T317" s="6"/>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A318" s="5"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="14"/>
+      <c r="J318" s="14"/>
+      <c r="K318" s="14"/>
+      <c r="L318" s="14"/>
+      <c r="M318" s="14"/>
+      <c r="N318" s="14"/>
+      <c r="O318" s="14"/>
+      <c r="P318" s="14"/>
+      <c r="Q318" s="14"/>
+      <c r="R318" s="14"/>
+      <c r="S318" s="14"/>
+      <c r="T318" s="6"/>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A319" s="5"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="14"/>
+      <c r="J319" s="14"/>
+      <c r="K319" s="14"/>
+      <c r="L319" s="14"/>
+      <c r="M319" s="14"/>
+      <c r="N319" s="14"/>
+      <c r="O319" s="14"/>
+      <c r="P319" s="14"/>
+      <c r="Q319" s="14"/>
+      <c r="R319" s="14"/>
+      <c r="S319" s="14"/>
+      <c r="T319" s="6"/>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A320" s="5"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="14"/>
+      <c r="J320" s="14"/>
+      <c r="K320" s="14"/>
+      <c r="L320" s="14"/>
+      <c r="M320" s="14"/>
+      <c r="N320" s="14"/>
+      <c r="O320" s="14"/>
+      <c r="P320" s="14"/>
+      <c r="Q320" s="14"/>
+      <c r="R320" s="14"/>
+      <c r="S320" s="14"/>
+      <c r="T320" s="6"/>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A321" s="7"/>
+      <c r="B321" s="8"/>
+      <c r="C321" s="8"/>
+      <c r="D321" s="8"/>
+      <c r="E321" s="8"/>
+      <c r="F321" s="8"/>
+      <c r="G321" s="8"/>
+      <c r="H321" s="8"/>
+      <c r="I321" s="8"/>
+      <c r="J321" s="8"/>
+      <c r="K321" s="8"/>
+      <c r="L321" s="8"/>
+      <c r="M321" s="8"/>
+      <c r="N321" s="8"/>
+      <c r="O321" s="8"/>
+      <c r="P321" s="8"/>
+      <c r="Q321" s="8"/>
+      <c r="R321" s="8"/>
+      <c r="S321" s="8"/>
+      <c r="T321" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
